--- a/src/test/resources/test-multi-headers.xlsx
+++ b/src/test/resources/test-multi-headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/projects/poiji/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D4897-4F95-AE45-B882-86C0CCD5A9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{224E2DB8-BA17-8549-8AA0-449C2AF3C7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>Last 4 Digits</t>
   </si>
   <si>
-    <t>Expriration Date</t>
+    <t>Expiration Date</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
